--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Udemy\RESTAssuredAPI\APITestingFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394AC338-8B7F-41DD-BCC5-53CD340E2785}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC31858-13AB-4156-9A8E-24C3BF847430}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E1BC9D8-B83D-4D03-8E10-2E52D8739CEB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>email</t>
   </si>
@@ -81,13 +81,7 @@
     <t>ppepperTEST@gmail.com</t>
   </si>
   <si>
-    <t>cus_HGZi6VrXxGhYoh</t>
-  </si>
-  <si>
-    <t>cus_HGZigG8XGXe1Q3</t>
-  </si>
-  <si>
-    <t>cus_HGZiZ5QcWXuv6u</t>
+    <t>cus_HIrp5IodmbhQyd</t>
   </si>
 </sst>
 </file>
@@ -451,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B80D8B4-9FF3-4F02-A80F-A28CD88D4845}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,16 +549,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{C9994F62-D21A-45E6-9C59-246EFDA87879}"/>
